--- a/output/efficient_frontier_20220101_20240715_252d.xlsx
+++ b/output/efficient_frontier_20220101_20240715_252d.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,13 +428,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C3">
-        <v>0.23236</v>
+        <v>0.23229</v>
       </c>
       <c r="D3">
-        <v>6.72</v>
+        <v>4.97</v>
       </c>
       <c r="E3">
-        <v>93.28</v>
+        <v>95.03</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C4">
-        <v>0.23256</v>
+        <v>0.23229</v>
       </c>
       <c r="D4">
-        <v>8.67</v>
+        <v>5.16</v>
       </c>
       <c r="E4">
-        <v>91.33</v>
+        <v>94.84</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C5">
-        <v>0.23291</v>
+        <v>0.23229</v>
       </c>
       <c r="D5">
-        <v>10.61</v>
+        <v>5.35</v>
       </c>
       <c r="E5">
-        <v>89.39</v>
+        <v>94.65000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C6">
-        <v>0.23339</v>
+        <v>0.2323</v>
       </c>
       <c r="D6">
-        <v>12.55</v>
+        <v>5.54</v>
       </c>
       <c r="E6">
-        <v>87.45</v>
+        <v>94.45999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C7">
-        <v>0.234</v>
+        <v>0.2323</v>
       </c>
       <c r="D7">
-        <v>14.5</v>
+        <v>5.74</v>
       </c>
       <c r="E7">
-        <v>85.5</v>
+        <v>94.26000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C8">
-        <v>0.23476</v>
+        <v>0.23231</v>
       </c>
       <c r="D8">
-        <v>16.44</v>
+        <v>5.93</v>
       </c>
       <c r="E8">
-        <v>83.56</v>
+        <v>94.06999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C9">
-        <v>0.23564</v>
+        <v>0.23232</v>
       </c>
       <c r="D9">
-        <v>18.38</v>
+        <v>6.12</v>
       </c>
       <c r="E9">
-        <v>81.62</v>
+        <v>93.88</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C10">
-        <v>0.23666</v>
+        <v>0.23233</v>
       </c>
       <c r="D10">
-        <v>20.33</v>
+        <v>6.31</v>
       </c>
       <c r="E10">
-        <v>79.67</v>
+        <v>93.69</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C11">
-        <v>0.23781</v>
+        <v>0.23234</v>
       </c>
       <c r="D11">
-        <v>22.27</v>
+        <v>6.5</v>
       </c>
       <c r="E11">
-        <v>77.73</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C12">
-        <v>0.23908</v>
+        <v>0.23235</v>
       </c>
       <c r="D12">
-        <v>24.21</v>
+        <v>6.69</v>
       </c>
       <c r="E12">
-        <v>75.79000000000001</v>
+        <v>93.31</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C13">
-        <v>0.24049</v>
+        <v>0.23237</v>
       </c>
       <c r="D13">
-        <v>26.16</v>
+        <v>6.88</v>
       </c>
       <c r="E13">
-        <v>73.84</v>
+        <v>93.12</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C14">
-        <v>0.24201</v>
+        <v>0.23238</v>
       </c>
       <c r="D14">
-        <v>28.1</v>
+        <v>7.07</v>
       </c>
       <c r="E14">
-        <v>71.90000000000001</v>
+        <v>92.93000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C15">
-        <v>0.24366</v>
+        <v>0.2324</v>
       </c>
       <c r="D15">
-        <v>30.04</v>
+        <v>7.26</v>
       </c>
       <c r="E15">
-        <v>69.95999999999999</v>
+        <v>92.73999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C16">
-        <v>0.24543</v>
+        <v>0.23242</v>
       </c>
       <c r="D16">
-        <v>31.99</v>
+        <v>7.45</v>
       </c>
       <c r="E16">
-        <v>68.01000000000001</v>
+        <v>92.55</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C17">
-        <v>0.24732</v>
+        <v>0.23244</v>
       </c>
       <c r="D17">
-        <v>33.93</v>
+        <v>7.64</v>
       </c>
       <c r="E17">
-        <v>66.06999999999999</v>
+        <v>92.36</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>0.24932</v>
+        <v>0.23246</v>
       </c>
       <c r="D18">
-        <v>35.87</v>
+        <v>7.83</v>
       </c>
       <c r="E18">
-        <v>64.13</v>
+        <v>92.17</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>0.25143</v>
+        <v>0.23248</v>
       </c>
       <c r="D19">
-        <v>37.82</v>
+        <v>8.02</v>
       </c>
       <c r="E19">
-        <v>62.18</v>
+        <v>91.98</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>0.25365</v>
+        <v>0.2325</v>
       </c>
       <c r="D20">
-        <v>39.76</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E20">
-        <v>60.24</v>
+        <v>91.78</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>0.25597</v>
+        <v>0.23253</v>
       </c>
       <c r="D21">
-        <v>41.7</v>
+        <v>8.41</v>
       </c>
       <c r="E21">
-        <v>58.3</v>
+        <v>91.59</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>0.2584</v>
+        <v>0.23255</v>
       </c>
       <c r="D22">
-        <v>43.65</v>
+        <v>8.6</v>
       </c>
       <c r="E22">
-        <v>56.35</v>
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>0.26093</v>
+        <v>0.23258</v>
       </c>
       <c r="D23">
-        <v>45.59</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="E23">
-        <v>54.41</v>
+        <v>91.20999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0.26356</v>
+        <v>0.23261</v>
       </c>
       <c r="D24">
-        <v>47.53</v>
+        <v>8.98</v>
       </c>
       <c r="E24">
-        <v>52.47</v>
+        <v>91.02</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>0.26628</v>
+        <v>0.23264</v>
       </c>
       <c r="D25">
-        <v>49.48</v>
+        <v>9.17</v>
       </c>
       <c r="E25">
-        <v>50.52</v>
+        <v>90.83</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>0.26909</v>
+        <v>0.23267</v>
       </c>
       <c r="D26">
-        <v>51.42</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="E26">
-        <v>48.58</v>
+        <v>90.64</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>0.27199</v>
+        <v>0.2327</v>
       </c>
       <c r="D27">
-        <v>53.36</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E27">
-        <v>46.64</v>
+        <v>90.45</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>0.27498</v>
+        <v>0.23274</v>
       </c>
       <c r="D28">
-        <v>55.31</v>
+        <v>9.74</v>
       </c>
       <c r="E28">
-        <v>44.69</v>
+        <v>90.26000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>0.27805</v>
+        <v>0.23277</v>
       </c>
       <c r="D29">
-        <v>57.25</v>
+        <v>9.93</v>
       </c>
       <c r="E29">
-        <v>42.75</v>
+        <v>90.06999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>0.2812</v>
+        <v>0.23281</v>
       </c>
       <c r="D30">
-        <v>59.19</v>
+        <v>10.12</v>
       </c>
       <c r="E30">
-        <v>40.81</v>
+        <v>89.88</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>0.28443</v>
+        <v>0.23285</v>
       </c>
       <c r="D31">
-        <v>61.14</v>
+        <v>10.31</v>
       </c>
       <c r="E31">
-        <v>38.86</v>
+        <v>89.69</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>0.28773</v>
+        <v>0.23288</v>
       </c>
       <c r="D32">
-        <v>63.08</v>
+        <v>10.51</v>
       </c>
       <c r="E32">
-        <v>36.92</v>
+        <v>89.48999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>0.2911</v>
+        <v>0.23293</v>
       </c>
       <c r="D33">
-        <v>65.02</v>
+        <v>10.7</v>
       </c>
       <c r="E33">
-        <v>34.98</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>0.29455</v>
+        <v>0.23297</v>
       </c>
       <c r="D34">
-        <v>66.95999999999999</v>
+        <v>10.89</v>
       </c>
       <c r="E34">
-        <v>33.04</v>
+        <v>89.11</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C35">
-        <v>0.29806</v>
+        <v>0.23301</v>
       </c>
       <c r="D35">
-        <v>68.91</v>
+        <v>11.08</v>
       </c>
       <c r="E35">
-        <v>31.09</v>
+        <v>88.92</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>0.30164</v>
+        <v>0.23305</v>
       </c>
       <c r="D36">
-        <v>70.84999999999999</v>
+        <v>11.27</v>
       </c>
       <c r="E36">
-        <v>29.15</v>
+        <v>88.73</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C37">
-        <v>0.30528</v>
+        <v>0.2331</v>
       </c>
       <c r="D37">
-        <v>72.79000000000001</v>
+        <v>11.46</v>
       </c>
       <c r="E37">
-        <v>27.21</v>
+        <v>88.54000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>0.30899</v>
+        <v>0.23315</v>
       </c>
       <c r="D38">
-        <v>74.73999999999999</v>
+        <v>11.65</v>
       </c>
       <c r="E38">
-        <v>25.26</v>
+        <v>88.34999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>0.31275</v>
+        <v>0.2332</v>
       </c>
       <c r="D39">
-        <v>76.68000000000001</v>
+        <v>11.84</v>
       </c>
       <c r="E39">
-        <v>23.32</v>
+        <v>88.16</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>0.31656</v>
+        <v>0.23325</v>
       </c>
       <c r="D40">
-        <v>78.62</v>
+        <v>12.03</v>
       </c>
       <c r="E40">
-        <v>21.38</v>
+        <v>87.97</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>0.32044</v>
+        <v>0.2333</v>
       </c>
       <c r="D41">
-        <v>80.56999999999999</v>
+        <v>12.22</v>
       </c>
       <c r="E41">
-        <v>19.43</v>
+        <v>87.78</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>0.32436</v>
+        <v>0.23335</v>
       </c>
       <c r="D42">
-        <v>82.51000000000001</v>
+        <v>12.41</v>
       </c>
       <c r="E42">
-        <v>17.49</v>
+        <v>87.59</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C43">
-        <v>0.32834</v>
+        <v>0.2334</v>
       </c>
       <c r="D43">
-        <v>84.45</v>
+        <v>12.6</v>
       </c>
       <c r="E43">
-        <v>15.55</v>
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>0.33236</v>
+        <v>0.23346</v>
       </c>
       <c r="D44">
-        <v>86.40000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="E44">
-        <v>13.6</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>0.33643</v>
+        <v>0.23351</v>
       </c>
       <c r="D45">
-        <v>88.34</v>
+        <v>12.99</v>
       </c>
       <c r="E45">
-        <v>11.66</v>
+        <v>87.01000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>0.34055</v>
+        <v>0.23357</v>
       </c>
       <c r="D46">
-        <v>90.28</v>
+        <v>13.18</v>
       </c>
       <c r="E46">
-        <v>9.720000000000001</v>
+        <v>86.81999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>0.34471</v>
+        <v>0.23363</v>
       </c>
       <c r="D47">
-        <v>92.23</v>
+        <v>13.37</v>
       </c>
       <c r="E47">
-        <v>7.77</v>
+        <v>86.63</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>0.34891</v>
+        <v>0.23369</v>
       </c>
       <c r="D48">
-        <v>94.17</v>
+        <v>13.56</v>
       </c>
       <c r="E48">
-        <v>5.83</v>
+        <v>86.44</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.35315</v>
+        <v>0.23375</v>
       </c>
       <c r="D49">
-        <v>96.11</v>
+        <v>13.75</v>
       </c>
       <c r="E49">
-        <v>3.89</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>0.35744</v>
+        <v>0.23381</v>
       </c>
       <c r="D50">
-        <v>98.06</v>
+        <v>13.94</v>
       </c>
       <c r="E50">
-        <v>1.94</v>
+        <v>86.06</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,15 +1241,7665 @@
         <v>49</v>
       </c>
       <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>0.23388</v>
+      </c>
+      <c r="D51">
+        <v>14.13</v>
+      </c>
+      <c r="E51">
+        <v>85.87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>0.23394</v>
+      </c>
+      <c r="D52">
+        <v>14.32</v>
+      </c>
+      <c r="E52">
+        <v>85.68000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>0.23401</v>
+      </c>
+      <c r="D53">
+        <v>14.51</v>
+      </c>
+      <c r="E53">
+        <v>85.48999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>0.23408</v>
+      </c>
+      <c r="D54">
+        <v>14.7</v>
+      </c>
+      <c r="E54">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>0.23415</v>
+      </c>
+      <c r="D55">
+        <v>14.89</v>
+      </c>
+      <c r="E55">
+        <v>85.11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>0.23422</v>
+      </c>
+      <c r="D56">
+        <v>15.09</v>
+      </c>
+      <c r="E56">
+        <v>84.91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>0.23429</v>
+      </c>
+      <c r="D57">
+        <v>15.28</v>
+      </c>
+      <c r="E57">
+        <v>84.72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>0.23436</v>
+      </c>
+      <c r="D58">
+        <v>15.47</v>
+      </c>
+      <c r="E58">
+        <v>84.53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>0.23444</v>
+      </c>
+      <c r="D59">
+        <v>15.66</v>
+      </c>
+      <c r="E59">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>0.23451</v>
+      </c>
+      <c r="D60">
+        <v>15.85</v>
+      </c>
+      <c r="E60">
+        <v>84.15000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>0.23459</v>
+      </c>
+      <c r="D61">
+        <v>16.04</v>
+      </c>
+      <c r="E61">
+        <v>83.95999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>0.23467</v>
+      </c>
+      <c r="D62">
+        <v>16.23</v>
+      </c>
+      <c r="E62">
+        <v>83.77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>0.23475</v>
+      </c>
+      <c r="D63">
+        <v>16.42</v>
+      </c>
+      <c r="E63">
+        <v>83.58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>0.23483</v>
+      </c>
+      <c r="D64">
+        <v>16.61</v>
+      </c>
+      <c r="E64">
+        <v>83.39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>0.23491</v>
+      </c>
+      <c r="D65">
+        <v>16.8</v>
+      </c>
+      <c r="E65">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>0.235</v>
+      </c>
+      <c r="D66">
+        <v>16.99</v>
+      </c>
+      <c r="E66">
+        <v>83.01000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>0.23508</v>
+      </c>
+      <c r="D67">
+        <v>17.18</v>
+      </c>
+      <c r="E67">
+        <v>82.81999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>0.23517</v>
+      </c>
+      <c r="D68">
+        <v>17.38</v>
+      </c>
+      <c r="E68">
+        <v>82.62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>0.23525</v>
+      </c>
+      <c r="D69">
+        <v>17.57</v>
+      </c>
+      <c r="E69">
+        <v>82.43000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>0.23534</v>
+      </c>
+      <c r="D70">
+        <v>17.76</v>
+      </c>
+      <c r="E70">
+        <v>82.23999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>0.23543</v>
+      </c>
+      <c r="D71">
+        <v>17.95</v>
+      </c>
+      <c r="E71">
+        <v>82.05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>0.23552</v>
+      </c>
+      <c r="D72">
+        <v>18.14</v>
+      </c>
+      <c r="E72">
+        <v>81.86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>0.23562</v>
+      </c>
+      <c r="D73">
+        <v>18.33</v>
+      </c>
+      <c r="E73">
+        <v>81.67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>0.23571</v>
+      </c>
+      <c r="D74">
+        <v>18.52</v>
+      </c>
+      <c r="E74">
+        <v>81.48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>0.2358</v>
+      </c>
+      <c r="D75">
+        <v>18.71</v>
+      </c>
+      <c r="E75">
+        <v>81.29000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>0.2359</v>
+      </c>
+      <c r="D76">
+        <v>18.9</v>
+      </c>
+      <c r="E76">
+        <v>81.09999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>0.236</v>
+      </c>
+      <c r="D77">
+        <v>19.09</v>
+      </c>
+      <c r="E77">
+        <v>80.91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>0.2361</v>
+      </c>
+      <c r="D78">
+        <v>19.28</v>
+      </c>
+      <c r="E78">
+        <v>80.72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>0.2362</v>
+      </c>
+      <c r="D79">
+        <v>19.47</v>
+      </c>
+      <c r="E79">
+        <v>80.53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>0.2363</v>
+      </c>
+      <c r="D80">
+        <v>19.66</v>
+      </c>
+      <c r="E80">
+        <v>80.34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>0.2364</v>
+      </c>
+      <c r="D81">
+        <v>19.86</v>
+      </c>
+      <c r="E81">
+        <v>80.14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>11</v>
+      </c>
+      <c r="C82">
+        <v>0.2365</v>
+      </c>
+      <c r="D82">
+        <v>20.05</v>
+      </c>
+      <c r="E82">
+        <v>79.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <v>0.23661</v>
+      </c>
+      <c r="D83">
+        <v>20.24</v>
+      </c>
+      <c r="E83">
+        <v>79.76000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <v>0.23672</v>
+      </c>
+      <c r="D84">
+        <v>20.43</v>
+      </c>
+      <c r="E84">
+        <v>79.56999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>0.23682</v>
+      </c>
+      <c r="D85">
+        <v>20.62</v>
+      </c>
+      <c r="E85">
+        <v>79.38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>0.23693</v>
+      </c>
+      <c r="D86">
+        <v>20.81</v>
+      </c>
+      <c r="E86">
+        <v>79.19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>11</v>
+      </c>
+      <c r="C87">
+        <v>0.23704</v>
+      </c>
+      <c r="D87">
+        <v>21</v>
+      </c>
+      <c r="E87">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>0.23715</v>
+      </c>
+      <c r="D88">
+        <v>21.19</v>
+      </c>
+      <c r="E88">
+        <v>78.81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>11</v>
+      </c>
+      <c r="C89">
+        <v>0.23727</v>
+      </c>
+      <c r="D89">
+        <v>21.38</v>
+      </c>
+      <c r="E89">
+        <v>78.62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>11</v>
+      </c>
+      <c r="C90">
+        <v>0.23738</v>
+      </c>
+      <c r="D90">
+        <v>21.57</v>
+      </c>
+      <c r="E90">
+        <v>78.43000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>11</v>
+      </c>
+      <c r="C91">
+        <v>0.2375</v>
+      </c>
+      <c r="D91">
+        <v>21.76</v>
+      </c>
+      <c r="E91">
+        <v>78.23999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>0.23761</v>
+      </c>
+      <c r="D92">
+        <v>21.95</v>
+      </c>
+      <c r="E92">
+        <v>78.05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>11</v>
+      </c>
+      <c r="C93">
+        <v>0.23773</v>
+      </c>
+      <c r="D93">
+        <v>22.15</v>
+      </c>
+      <c r="E93">
+        <v>77.84999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>11</v>
+      </c>
+      <c r="C94">
+        <v>0.23785</v>
+      </c>
+      <c r="D94">
+        <v>22.34</v>
+      </c>
+      <c r="E94">
+        <v>77.66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>11</v>
+      </c>
+      <c r="C95">
+        <v>0.23797</v>
+      </c>
+      <c r="D95">
+        <v>22.53</v>
+      </c>
+      <c r="E95">
+        <v>77.47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>0.23809</v>
+      </c>
+      <c r="D96">
+        <v>22.72</v>
+      </c>
+      <c r="E96">
+        <v>77.28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>11</v>
+      </c>
+      <c r="C97">
+        <v>0.23821</v>
+      </c>
+      <c r="D97">
+        <v>22.91</v>
+      </c>
+      <c r="E97">
+        <v>77.09</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>11</v>
+      </c>
+      <c r="C98">
+        <v>0.23834</v>
+      </c>
+      <c r="D98">
+        <v>23.1</v>
+      </c>
+      <c r="E98">
+        <v>76.90000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>11</v>
+      </c>
+      <c r="C99">
+        <v>0.23846</v>
+      </c>
+      <c r="D99">
+        <v>23.29</v>
+      </c>
+      <c r="E99">
+        <v>76.70999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>11</v>
+      </c>
+      <c r="C100">
+        <v>0.23859</v>
+      </c>
+      <c r="D100">
+        <v>23.48</v>
+      </c>
+      <c r="E100">
+        <v>76.52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>11</v>
+      </c>
+      <c r="C101">
+        <v>0.23872</v>
+      </c>
+      <c r="D101">
+        <v>23.67</v>
+      </c>
+      <c r="E101">
+        <v>76.33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <v>0.23884</v>
+      </c>
+      <c r="D102">
+        <v>23.86</v>
+      </c>
+      <c r="E102">
+        <v>76.14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>12</v>
+      </c>
+      <c r="C103">
+        <v>0.23897</v>
+      </c>
+      <c r="D103">
+        <v>24.05</v>
+      </c>
+      <c r="E103">
+        <v>75.95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>0.23911</v>
+      </c>
+      <c r="D104">
+        <v>24.24</v>
+      </c>
+      <c r="E104">
+        <v>75.76000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>12</v>
+      </c>
+      <c r="C105">
+        <v>0.23924</v>
+      </c>
+      <c r="D105">
+        <v>24.44</v>
+      </c>
+      <c r="E105">
+        <v>75.56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>12</v>
+      </c>
+      <c r="C106">
+        <v>0.23937</v>
+      </c>
+      <c r="D106">
+        <v>24.63</v>
+      </c>
+      <c r="E106">
+        <v>75.37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>12</v>
+      </c>
+      <c r="C107">
+        <v>0.23951</v>
+      </c>
+      <c r="D107">
+        <v>24.82</v>
+      </c>
+      <c r="E107">
+        <v>75.18000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>12</v>
+      </c>
+      <c r="C108">
+        <v>0.23964</v>
+      </c>
+      <c r="D108">
+        <v>25.01</v>
+      </c>
+      <c r="E108">
+        <v>74.98999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>12</v>
+      </c>
+      <c r="C109">
+        <v>0.23978</v>
+      </c>
+      <c r="D109">
+        <v>25.2</v>
+      </c>
+      <c r="E109">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>0.23992</v>
+      </c>
+      <c r="D110">
+        <v>25.39</v>
+      </c>
+      <c r="E110">
+        <v>74.61</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>12</v>
+      </c>
+      <c r="C111">
+        <v>0.24006</v>
+      </c>
+      <c r="D111">
+        <v>25.58</v>
+      </c>
+      <c r="E111">
+        <v>74.42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>0.2402</v>
+      </c>
+      <c r="D112">
+        <v>25.77</v>
+      </c>
+      <c r="E112">
+        <v>74.23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <v>0.24034</v>
+      </c>
+      <c r="D113">
+        <v>25.96</v>
+      </c>
+      <c r="E113">
+        <v>74.04000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>12</v>
+      </c>
+      <c r="C114">
+        <v>0.24048</v>
+      </c>
+      <c r="D114">
+        <v>26.15</v>
+      </c>
+      <c r="E114">
+        <v>73.84999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>0.24063</v>
+      </c>
+      <c r="D115">
+        <v>26.34</v>
+      </c>
+      <c r="E115">
+        <v>73.66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>0.24077</v>
+      </c>
+      <c r="D116">
+        <v>26.53</v>
+      </c>
+      <c r="E116">
+        <v>73.47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>0.24092</v>
+      </c>
+      <c r="D117">
+        <v>26.73</v>
+      </c>
+      <c r="E117">
+        <v>73.27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>0.24107</v>
+      </c>
+      <c r="D118">
+        <v>26.92</v>
+      </c>
+      <c r="E118">
+        <v>73.08</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>0.24122</v>
+      </c>
+      <c r="D119">
+        <v>27.11</v>
+      </c>
+      <c r="E119">
+        <v>72.89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>0.24137</v>
+      </c>
+      <c r="D120">
+        <v>27.3</v>
+      </c>
+      <c r="E120">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>0.24152</v>
+      </c>
+      <c r="D121">
+        <v>27.49</v>
+      </c>
+      <c r="E121">
+        <v>72.51000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>13</v>
+      </c>
+      <c r="C122">
+        <v>0.24167</v>
+      </c>
+      <c r="D122">
+        <v>27.68</v>
+      </c>
+      <c r="E122">
+        <v>72.31999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>13</v>
+      </c>
+      <c r="C123">
+        <v>0.24183</v>
+      </c>
+      <c r="D123">
+        <v>27.87</v>
+      </c>
+      <c r="E123">
+        <v>72.13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>13</v>
+      </c>
+      <c r="C124">
+        <v>0.24198</v>
+      </c>
+      <c r="D124">
+        <v>28.06</v>
+      </c>
+      <c r="E124">
+        <v>71.94</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>13</v>
+      </c>
+      <c r="C125">
+        <v>0.24214</v>
+      </c>
+      <c r="D125">
+        <v>28.25</v>
+      </c>
+      <c r="E125">
+        <v>71.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>13</v>
+      </c>
+      <c r="C126">
+        <v>0.2423</v>
+      </c>
+      <c r="D126">
+        <v>28.44</v>
+      </c>
+      <c r="E126">
+        <v>71.56</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>0.24245</v>
+      </c>
+      <c r="D127">
+        <v>28.63</v>
+      </c>
+      <c r="E127">
+        <v>71.37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>13</v>
+      </c>
+      <c r="C128">
+        <v>0.24261</v>
+      </c>
+      <c r="D128">
+        <v>28.82</v>
+      </c>
+      <c r="E128">
+        <v>71.18000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>13</v>
+      </c>
+      <c r="C129">
+        <v>0.24278</v>
+      </c>
+      <c r="D129">
+        <v>29.02</v>
+      </c>
+      <c r="E129">
+        <v>70.98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>13</v>
+      </c>
+      <c r="C130">
+        <v>0.24294</v>
+      </c>
+      <c r="D130">
+        <v>29.21</v>
+      </c>
+      <c r="E130">
+        <v>70.79000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>13</v>
+      </c>
+      <c r="C131">
+        <v>0.2431</v>
+      </c>
+      <c r="D131">
+        <v>29.4</v>
+      </c>
+      <c r="E131">
+        <v>70.59999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>13</v>
+      </c>
+      <c r="C132">
+        <v>0.24327</v>
+      </c>
+      <c r="D132">
+        <v>29.59</v>
+      </c>
+      <c r="E132">
+        <v>70.41</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>13</v>
+      </c>
+      <c r="C133">
+        <v>0.24343</v>
+      </c>
+      <c r="D133">
+        <v>29.78</v>
+      </c>
+      <c r="E133">
+        <v>70.22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>13</v>
+      </c>
+      <c r="C134">
+        <v>0.2436</v>
+      </c>
+      <c r="D134">
+        <v>29.97</v>
+      </c>
+      <c r="E134">
+        <v>70.03</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>13</v>
+      </c>
+      <c r="C135">
+        <v>0.24377</v>
+      </c>
+      <c r="D135">
+        <v>30.16</v>
+      </c>
+      <c r="E135">
+        <v>69.84</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>13</v>
+      </c>
+      <c r="C136">
+        <v>0.24393</v>
+      </c>
+      <c r="D136">
+        <v>30.35</v>
+      </c>
+      <c r="E136">
+        <v>69.65000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>13</v>
+      </c>
+      <c r="C137">
+        <v>0.2441</v>
+      </c>
+      <c r="D137">
+        <v>30.54</v>
+      </c>
+      <c r="E137">
+        <v>69.45999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>13</v>
+      </c>
+      <c r="C138">
+        <v>0.24428</v>
+      </c>
+      <c r="D138">
+        <v>30.73</v>
+      </c>
+      <c r="E138">
+        <v>69.27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>13</v>
+      </c>
+      <c r="C139">
+        <v>0.24445</v>
+      </c>
+      <c r="D139">
+        <v>30.92</v>
+      </c>
+      <c r="E139">
+        <v>69.08</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>13</v>
+      </c>
+      <c r="C140">
+        <v>0.24462</v>
+      </c>
+      <c r="D140">
+        <v>31.11</v>
+      </c>
+      <c r="E140">
+        <v>68.89</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>13</v>
+      </c>
+      <c r="C141">
+        <v>0.2448</v>
+      </c>
+      <c r="D141">
+        <v>31.3</v>
+      </c>
+      <c r="E141">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>13</v>
+      </c>
+      <c r="C142">
+        <v>0.24497</v>
+      </c>
+      <c r="D142">
+        <v>31.5</v>
+      </c>
+      <c r="E142">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>14</v>
+      </c>
+      <c r="C143">
+        <v>0.24515</v>
+      </c>
+      <c r="D143">
+        <v>31.69</v>
+      </c>
+      <c r="E143">
+        <v>68.31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>14</v>
+      </c>
+      <c r="C144">
+        <v>0.24533</v>
+      </c>
+      <c r="D144">
+        <v>31.88</v>
+      </c>
+      <c r="E144">
+        <v>68.12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>14</v>
+      </c>
+      <c r="C145">
+        <v>0.24551</v>
+      </c>
+      <c r="D145">
+        <v>32.07</v>
+      </c>
+      <c r="E145">
+        <v>67.93000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>14</v>
+      </c>
+      <c r="C146">
+        <v>0.24569</v>
+      </c>
+      <c r="D146">
+        <v>32.26</v>
+      </c>
+      <c r="E146">
+        <v>67.73999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>14</v>
+      </c>
+      <c r="C147">
+        <v>0.24587</v>
+      </c>
+      <c r="D147">
+        <v>32.45</v>
+      </c>
+      <c r="E147">
+        <v>67.55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>14</v>
+      </c>
+      <c r="C148">
+        <v>0.24605</v>
+      </c>
+      <c r="D148">
+        <v>32.64</v>
+      </c>
+      <c r="E148">
+        <v>67.36</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>14</v>
+      </c>
+      <c r="C149">
+        <v>0.24624</v>
+      </c>
+      <c r="D149">
+        <v>32.83</v>
+      </c>
+      <c r="E149">
+        <v>67.17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>14</v>
+      </c>
+      <c r="C150">
+        <v>0.24642</v>
+      </c>
+      <c r="D150">
+        <v>33.02</v>
+      </c>
+      <c r="E150">
+        <v>66.98</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>14</v>
+      </c>
+      <c r="C151">
+        <v>0.24661</v>
+      </c>
+      <c r="D151">
+        <v>33.21</v>
+      </c>
+      <c r="E151">
+        <v>66.79000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>14</v>
+      </c>
+      <c r="C152">
+        <v>0.24679</v>
+      </c>
+      <c r="D152">
+        <v>33.4</v>
+      </c>
+      <c r="E152">
+        <v>66.59999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>14</v>
+      </c>
+      <c r="C153">
+        <v>0.24698</v>
+      </c>
+      <c r="D153">
+        <v>33.59</v>
+      </c>
+      <c r="E153">
+        <v>66.41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>14</v>
+      </c>
+      <c r="C154">
+        <v>0.24717</v>
+      </c>
+      <c r="D154">
+        <v>33.79</v>
+      </c>
+      <c r="E154">
+        <v>66.20999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>14</v>
+      </c>
+      <c r="C155">
+        <v>0.24736</v>
+      </c>
+      <c r="D155">
+        <v>33.98</v>
+      </c>
+      <c r="E155">
+        <v>66.02</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>14</v>
+      </c>
+      <c r="C156">
+        <v>0.24755</v>
+      </c>
+      <c r="D156">
+        <v>34.17</v>
+      </c>
+      <c r="E156">
+        <v>65.83</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>14</v>
+      </c>
+      <c r="C157">
+        <v>0.24775</v>
+      </c>
+      <c r="D157">
+        <v>34.36</v>
+      </c>
+      <c r="E157">
+        <v>65.64</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>14</v>
+      </c>
+      <c r="C158">
+        <v>0.24794</v>
+      </c>
+      <c r="D158">
+        <v>34.55</v>
+      </c>
+      <c r="E158">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>14</v>
+      </c>
+      <c r="C159">
+        <v>0.24814</v>
+      </c>
+      <c r="D159">
+        <v>34.74</v>
+      </c>
+      <c r="E159">
+        <v>65.26000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>14</v>
+      </c>
+      <c r="C160">
+        <v>0.24833</v>
+      </c>
+      <c r="D160">
+        <v>34.93</v>
+      </c>
+      <c r="E160">
+        <v>65.06999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>14</v>
+      </c>
+      <c r="C161">
+        <v>0.24853</v>
+      </c>
+      <c r="D161">
+        <v>35.12</v>
+      </c>
+      <c r="E161">
+        <v>64.88</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>14</v>
+      </c>
+      <c r="C162">
+        <v>0.24873</v>
+      </c>
+      <c r="D162">
+        <v>35.31</v>
+      </c>
+      <c r="E162">
+        <v>64.69</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>14</v>
+      </c>
+      <c r="C163">
+        <v>0.24893</v>
+      </c>
+      <c r="D163">
+        <v>35.5</v>
+      </c>
+      <c r="E163">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>15</v>
+      </c>
+      <c r="C164">
+        <v>0.24913</v>
+      </c>
+      <c r="D164">
+        <v>35.69</v>
+      </c>
+      <c r="E164">
+        <v>64.31</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>15</v>
+      </c>
+      <c r="C165">
+        <v>0.24933</v>
+      </c>
+      <c r="D165">
+        <v>35.88</v>
+      </c>
+      <c r="E165">
+        <v>64.12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>15</v>
+      </c>
+      <c r="C166">
+        <v>0.24953</v>
+      </c>
+      <c r="D166">
+        <v>36.08</v>
+      </c>
+      <c r="E166">
+        <v>63.92</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>15</v>
+      </c>
+      <c r="C167">
+        <v>0.24973</v>
+      </c>
+      <c r="D167">
+        <v>36.27</v>
+      </c>
+      <c r="E167">
+        <v>63.73</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>15</v>
+      </c>
+      <c r="C168">
+        <v>0.24994</v>
+      </c>
+      <c r="D168">
+        <v>36.46</v>
+      </c>
+      <c r="E168">
+        <v>63.54</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>15</v>
+      </c>
+      <c r="C169">
+        <v>0.25014</v>
+      </c>
+      <c r="D169">
+        <v>36.65</v>
+      </c>
+      <c r="E169">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>15</v>
+      </c>
+      <c r="C170">
+        <v>0.25035</v>
+      </c>
+      <c r="D170">
+        <v>36.84</v>
+      </c>
+      <c r="E170">
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>15</v>
+      </c>
+      <c r="C171">
+        <v>0.25056</v>
+      </c>
+      <c r="D171">
+        <v>37.03</v>
+      </c>
+      <c r="E171">
+        <v>62.97</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>15</v>
+      </c>
+      <c r="C172">
+        <v>0.25077</v>
+      </c>
+      <c r="D172">
+        <v>37.22</v>
+      </c>
+      <c r="E172">
+        <v>62.78</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>15</v>
+      </c>
+      <c r="C173">
+        <v>0.25098</v>
+      </c>
+      <c r="D173">
+        <v>37.41</v>
+      </c>
+      <c r="E173">
+        <v>62.59</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>15</v>
+      </c>
+      <c r="C174">
+        <v>0.25119</v>
+      </c>
+      <c r="D174">
+        <v>37.6</v>
+      </c>
+      <c r="E174">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>15</v>
+      </c>
+      <c r="C175">
+        <v>0.2514</v>
+      </c>
+      <c r="D175">
+        <v>37.79</v>
+      </c>
+      <c r="E175">
+        <v>62.21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>15</v>
+      </c>
+      <c r="C176">
+        <v>0.25161</v>
+      </c>
+      <c r="D176">
+        <v>37.98</v>
+      </c>
+      <c r="E176">
+        <v>62.02</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>15</v>
+      </c>
+      <c r="C177">
+        <v>0.25183</v>
+      </c>
+      <c r="D177">
+        <v>38.17</v>
+      </c>
+      <c r="E177">
+        <v>61.83</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>15</v>
+      </c>
+      <c r="C178">
+        <v>0.25204</v>
+      </c>
+      <c r="D178">
+        <v>38.37</v>
+      </c>
+      <c r="E178">
+        <v>61.63</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>15</v>
+      </c>
+      <c r="C179">
+        <v>0.25226</v>
+      </c>
+      <c r="D179">
+        <v>38.56</v>
+      </c>
+      <c r="E179">
+        <v>61.44</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>15</v>
+      </c>
+      <c r="C180">
+        <v>0.25248</v>
+      </c>
+      <c r="D180">
+        <v>38.75</v>
+      </c>
+      <c r="E180">
+        <v>61.25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>15</v>
+      </c>
+      <c r="C181">
+        <v>0.2527</v>
+      </c>
+      <c r="D181">
+        <v>38.94</v>
+      </c>
+      <c r="E181">
+        <v>61.06</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>15</v>
+      </c>
+      <c r="C182">
+        <v>0.25291</v>
+      </c>
+      <c r="D182">
+        <v>39.13</v>
+      </c>
+      <c r="E182">
+        <v>60.87</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>15</v>
+      </c>
+      <c r="C183">
+        <v>0.25313</v>
+      </c>
+      <c r="D183">
+        <v>39.32</v>
+      </c>
+      <c r="E183">
+        <v>60.68</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>15</v>
+      </c>
+      <c r="C184">
+        <v>0.25336</v>
+      </c>
+      <c r="D184">
+        <v>39.51</v>
+      </c>
+      <c r="E184">
+        <v>60.49</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>16</v>
+      </c>
+      <c r="C185">
+        <v>0.25358</v>
+      </c>
+      <c r="D185">
+        <v>39.7</v>
+      </c>
+      <c r="E185">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>16</v>
+      </c>
+      <c r="C186">
+        <v>0.2538</v>
+      </c>
+      <c r="D186">
+        <v>39.89</v>
+      </c>
+      <c r="E186">
+        <v>60.11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>16</v>
+      </c>
+      <c r="C187">
+        <v>0.25403</v>
+      </c>
+      <c r="D187">
+        <v>40.08</v>
+      </c>
+      <c r="E187">
+        <v>59.92</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>16</v>
+      </c>
+      <c r="C188">
+        <v>0.25425</v>
+      </c>
+      <c r="D188">
+        <v>40.27</v>
+      </c>
+      <c r="E188">
+        <v>59.73</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>16</v>
+      </c>
+      <c r="C189">
+        <v>0.25448</v>
+      </c>
+      <c r="D189">
+        <v>40.46</v>
+      </c>
+      <c r="E189">
+        <v>59.54</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>16</v>
+      </c>
+      <c r="C190">
+        <v>0.25471</v>
+      </c>
+      <c r="D190">
+        <v>40.66</v>
+      </c>
+      <c r="E190">
+        <v>59.34</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>16</v>
+      </c>
+      <c r="C191">
+        <v>0.25493</v>
+      </c>
+      <c r="D191">
+        <v>40.85</v>
+      </c>
+      <c r="E191">
+        <v>59.15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>16</v>
+      </c>
+      <c r="C192">
+        <v>0.25516</v>
+      </c>
+      <c r="D192">
+        <v>41.04</v>
+      </c>
+      <c r="E192">
+        <v>58.96</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>16</v>
+      </c>
+      <c r="C193">
+        <v>0.25539</v>
+      </c>
+      <c r="D193">
+        <v>41.23</v>
+      </c>
+      <c r="E193">
+        <v>58.77</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>16</v>
+      </c>
+      <c r="C194">
+        <v>0.25563</v>
+      </c>
+      <c r="D194">
+        <v>41.42</v>
+      </c>
+      <c r="E194">
+        <v>58.58</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>16</v>
+      </c>
+      <c r="C195">
+        <v>0.25586</v>
+      </c>
+      <c r="D195">
+        <v>41.61</v>
+      </c>
+      <c r="E195">
+        <v>58.39</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>16</v>
+      </c>
+      <c r="C196">
+        <v>0.25609</v>
+      </c>
+      <c r="D196">
+        <v>41.8</v>
+      </c>
+      <c r="E196">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>16</v>
+      </c>
+      <c r="C197">
+        <v>0.25633</v>
+      </c>
+      <c r="D197">
+        <v>41.99</v>
+      </c>
+      <c r="E197">
+        <v>58.01</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>16</v>
+      </c>
+      <c r="C198">
+        <v>0.25656</v>
+      </c>
+      <c r="D198">
+        <v>42.18</v>
+      </c>
+      <c r="E198">
+        <v>57.82</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>16</v>
+      </c>
+      <c r="C199">
+        <v>0.2568</v>
+      </c>
+      <c r="D199">
+        <v>42.37</v>
+      </c>
+      <c r="E199">
+        <v>57.63</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>16</v>
+      </c>
+      <c r="C200">
+        <v>0.25704</v>
+      </c>
+      <c r="D200">
+        <v>42.56</v>
+      </c>
+      <c r="E200">
+        <v>57.44</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>16</v>
+      </c>
+      <c r="C201">
+        <v>0.25727</v>
+      </c>
+      <c r="D201">
+        <v>42.75</v>
+      </c>
+      <c r="E201">
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>16</v>
+      </c>
+      <c r="C202">
+        <v>0.25751</v>
+      </c>
+      <c r="D202">
+        <v>42.94</v>
+      </c>
+      <c r="E202">
+        <v>57.06</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>16</v>
+      </c>
+      <c r="C203">
+        <v>0.25775</v>
+      </c>
+      <c r="D203">
+        <v>43.14</v>
+      </c>
+      <c r="E203">
+        <v>56.86</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>16</v>
+      </c>
+      <c r="C204">
+        <v>0.258</v>
+      </c>
+      <c r="D204">
+        <v>43.33</v>
+      </c>
+      <c r="E204">
+        <v>56.67</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>16</v>
+      </c>
+      <c r="C205">
+        <v>0.25824</v>
+      </c>
+      <c r="D205">
+        <v>43.52</v>
+      </c>
+      <c r="E205">
+        <v>56.48</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>17</v>
+      </c>
+      <c r="C206">
+        <v>0.25848</v>
+      </c>
+      <c r="D206">
+        <v>43.71</v>
+      </c>
+      <c r="E206">
+        <v>56.29</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>17</v>
+      </c>
+      <c r="C207">
+        <v>0.25873</v>
+      </c>
+      <c r="D207">
+        <v>43.9</v>
+      </c>
+      <c r="E207">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>17</v>
+      </c>
+      <c r="C208">
+        <v>0.25897</v>
+      </c>
+      <c r="D208">
+        <v>44.09</v>
+      </c>
+      <c r="E208">
+        <v>55.91</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>17</v>
+      </c>
+      <c r="C209">
+        <v>0.25922</v>
+      </c>
+      <c r="D209">
+        <v>44.28</v>
+      </c>
+      <c r="E209">
+        <v>55.72</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>17</v>
+      </c>
+      <c r="C210">
+        <v>0.25946</v>
+      </c>
+      <c r="D210">
+        <v>44.47</v>
+      </c>
+      <c r="E210">
+        <v>55.53</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>17</v>
+      </c>
+      <c r="C211">
+        <v>0.25971</v>
+      </c>
+      <c r="D211">
+        <v>44.66</v>
+      </c>
+      <c r="E211">
+        <v>55.34</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>17</v>
+      </c>
+      <c r="C212">
+        <v>0.25996</v>
+      </c>
+      <c r="D212">
+        <v>44.85</v>
+      </c>
+      <c r="E212">
+        <v>55.15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>17</v>
+      </c>
+      <c r="C213">
+        <v>0.26021</v>
+      </c>
+      <c r="D213">
+        <v>45.04</v>
+      </c>
+      <c r="E213">
+        <v>54.96</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>17</v>
+      </c>
+      <c r="C214">
+        <v>0.26046</v>
+      </c>
+      <c r="D214">
+        <v>45.23</v>
+      </c>
+      <c r="E214">
+        <v>54.77</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>17</v>
+      </c>
+      <c r="C215">
+        <v>0.26071</v>
+      </c>
+      <c r="D215">
+        <v>45.43</v>
+      </c>
+      <c r="E215">
+        <v>54.57</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>17</v>
+      </c>
+      <c r="C216">
+        <v>0.26097</v>
+      </c>
+      <c r="D216">
+        <v>45.62</v>
+      </c>
+      <c r="E216">
+        <v>54.38</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>17</v>
+      </c>
+      <c r="C217">
+        <v>0.26122</v>
+      </c>
+      <c r="D217">
+        <v>45.81</v>
+      </c>
+      <c r="E217">
+        <v>54.19</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>17</v>
+      </c>
+      <c r="C218">
+        <v>0.26147</v>
+      </c>
+      <c r="D218">
+        <v>46</v>
+      </c>
+      <c r="E218">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>17</v>
+      </c>
+      <c r="C219">
+        <v>0.26173</v>
+      </c>
+      <c r="D219">
+        <v>46.19</v>
+      </c>
+      <c r="E219">
+        <v>53.81</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>17</v>
+      </c>
+      <c r="C220">
+        <v>0.26199</v>
+      </c>
+      <c r="D220">
+        <v>46.38</v>
+      </c>
+      <c r="E220">
+        <v>53.62</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>17</v>
+      </c>
+      <c r="C221">
+        <v>0.26224</v>
+      </c>
+      <c r="D221">
+        <v>46.57</v>
+      </c>
+      <c r="E221">
+        <v>53.43</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>17</v>
+      </c>
+      <c r="C222">
+        <v>0.2625</v>
+      </c>
+      <c r="D222">
+        <v>46.76</v>
+      </c>
+      <c r="E222">
+        <v>53.24</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>17</v>
+      </c>
+      <c r="C223">
+        <v>0.26276</v>
+      </c>
+      <c r="D223">
+        <v>46.95</v>
+      </c>
+      <c r="E223">
+        <v>53.05</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>17</v>
+      </c>
+      <c r="C224">
+        <v>0.26302</v>
+      </c>
+      <c r="D224">
+        <v>47.14</v>
+      </c>
+      <c r="E224">
+        <v>52.86</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>17</v>
+      </c>
+      <c r="C225">
+        <v>0.26328</v>
+      </c>
+      <c r="D225">
+        <v>47.33</v>
+      </c>
+      <c r="E225">
+        <v>52.67</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>18</v>
+      </c>
+      <c r="C226">
+        <v>0.26355</v>
+      </c>
+      <c r="D226">
+        <v>47.52</v>
+      </c>
+      <c r="E226">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>18</v>
+      </c>
+      <c r="C227">
+        <v>0.26381</v>
+      </c>
+      <c r="D227">
+        <v>47.72</v>
+      </c>
+      <c r="E227">
+        <v>52.28</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>18</v>
+      </c>
+      <c r="C228">
+        <v>0.26407</v>
+      </c>
+      <c r="D228">
+        <v>47.91</v>
+      </c>
+      <c r="E228">
+        <v>52.09</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>18</v>
+      </c>
+      <c r="C229">
+        <v>0.26434</v>
+      </c>
+      <c r="D229">
+        <v>48.1</v>
+      </c>
+      <c r="E229">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>18</v>
+      </c>
+      <c r="C230">
+        <v>0.2646</v>
+      </c>
+      <c r="D230">
+        <v>48.29</v>
+      </c>
+      <c r="E230">
+        <v>51.71</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>18</v>
+      </c>
+      <c r="C231">
+        <v>0.26487</v>
+      </c>
+      <c r="D231">
+        <v>48.48</v>
+      </c>
+      <c r="E231">
+        <v>51.52</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>18</v>
+      </c>
+      <c r="C232">
+        <v>0.26514</v>
+      </c>
+      <c r="D232">
+        <v>48.67</v>
+      </c>
+      <c r="E232">
+        <v>51.33</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>18</v>
+      </c>
+      <c r="C233">
+        <v>0.26541</v>
+      </c>
+      <c r="D233">
+        <v>48.86</v>
+      </c>
+      <c r="E233">
+        <v>51.14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>18</v>
+      </c>
+      <c r="C234">
+        <v>0.26567</v>
+      </c>
+      <c r="D234">
+        <v>49.05</v>
+      </c>
+      <c r="E234">
+        <v>50.95</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>18</v>
+      </c>
+      <c r="C235">
+        <v>0.26595</v>
+      </c>
+      <c r="D235">
+        <v>49.24</v>
+      </c>
+      <c r="E235">
+        <v>50.76</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>18</v>
+      </c>
+      <c r="C236">
+        <v>0.26622</v>
+      </c>
+      <c r="D236">
+        <v>49.43</v>
+      </c>
+      <c r="E236">
+        <v>50.57</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>18</v>
+      </c>
+      <c r="C237">
+        <v>0.26649</v>
+      </c>
+      <c r="D237">
+        <v>49.62</v>
+      </c>
+      <c r="E237">
+        <v>50.38</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>18</v>
+      </c>
+      <c r="C238">
+        <v>0.26676</v>
+      </c>
+      <c r="D238">
+        <v>49.81</v>
+      </c>
+      <c r="E238">
+        <v>50.19</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>18</v>
+      </c>
+      <c r="C239">
+        <v>0.26703</v>
+      </c>
+      <c r="D239">
+        <v>50.01</v>
+      </c>
+      <c r="E239">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>18</v>
+      </c>
+      <c r="C240">
+        <v>0.26731</v>
+      </c>
+      <c r="D240">
+        <v>50.2</v>
+      </c>
+      <c r="E240">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>18</v>
+      </c>
+      <c r="C241">
+        <v>0.26758</v>
+      </c>
+      <c r="D241">
+        <v>50.39</v>
+      </c>
+      <c r="E241">
+        <v>49.61</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>18</v>
+      </c>
+      <c r="C242">
+        <v>0.26786</v>
+      </c>
+      <c r="D242">
+        <v>50.58</v>
+      </c>
+      <c r="E242">
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>18</v>
+      </c>
+      <c r="C243">
+        <v>0.26814</v>
+      </c>
+      <c r="D243">
+        <v>50.77</v>
+      </c>
+      <c r="E243">
+        <v>49.23</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>18</v>
+      </c>
+      <c r="C244">
+        <v>0.26842</v>
+      </c>
+      <c r="D244">
+        <v>50.96</v>
+      </c>
+      <c r="E244">
+        <v>49.04</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>18</v>
+      </c>
+      <c r="C245">
+        <v>0.2687</v>
+      </c>
+      <c r="D245">
+        <v>51.15</v>
+      </c>
+      <c r="E245">
+        <v>48.85</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>18</v>
+      </c>
+      <c r="C246">
+        <v>0.26897</v>
+      </c>
+      <c r="D246">
+        <v>51.34</v>
+      </c>
+      <c r="E246">
+        <v>48.66</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>19</v>
+      </c>
+      <c r="C247">
+        <v>0.26926</v>
+      </c>
+      <c r="D247">
+        <v>51.53</v>
+      </c>
+      <c r="E247">
+        <v>48.47</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>19</v>
+      </c>
+      <c r="C248">
+        <v>0.26954</v>
+      </c>
+      <c r="D248">
+        <v>51.72</v>
+      </c>
+      <c r="E248">
+        <v>48.28</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>19</v>
+      </c>
+      <c r="C249">
+        <v>0.26982</v>
+      </c>
+      <c r="D249">
+        <v>51.91</v>
+      </c>
+      <c r="E249">
+        <v>48.09</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>19</v>
+      </c>
+      <c r="C250">
+        <v>0.2701</v>
+      </c>
+      <c r="D250">
+        <v>52.1</v>
+      </c>
+      <c r="E250">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>19</v>
+      </c>
+      <c r="C251">
+        <v>0.27039</v>
+      </c>
+      <c r="D251">
+        <v>52.3</v>
+      </c>
+      <c r="E251">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>19</v>
+      </c>
+      <c r="C252">
+        <v>0.27067</v>
+      </c>
+      <c r="D252">
+        <v>52.49</v>
+      </c>
+      <c r="E252">
+        <v>47.51</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>19</v>
+      </c>
+      <c r="C253">
+        <v>0.27096</v>
+      </c>
+      <c r="D253">
+        <v>52.68</v>
+      </c>
+      <c r="E253">
+        <v>47.32</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>19</v>
+      </c>
+      <c r="C254">
+        <v>0.27124</v>
+      </c>
+      <c r="D254">
+        <v>52.87</v>
+      </c>
+      <c r="E254">
+        <v>47.13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>19</v>
+      </c>
+      <c r="C255">
+        <v>0.27153</v>
+      </c>
+      <c r="D255">
+        <v>53.06</v>
+      </c>
+      <c r="E255">
+        <v>46.94</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>19</v>
+      </c>
+      <c r="C256">
+        <v>0.27182</v>
+      </c>
+      <c r="D256">
+        <v>53.25</v>
+      </c>
+      <c r="E256">
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>19</v>
+      </c>
+      <c r="C257">
+        <v>0.27211</v>
+      </c>
+      <c r="D257">
+        <v>53.44</v>
+      </c>
+      <c r="E257">
+        <v>46.56</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>19</v>
+      </c>
+      <c r="C258">
+        <v>0.2724</v>
+      </c>
+      <c r="D258">
+        <v>53.63</v>
+      </c>
+      <c r="E258">
+        <v>46.37</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>19</v>
+      </c>
+      <c r="C259">
+        <v>0.27269</v>
+      </c>
+      <c r="D259">
+        <v>53.82</v>
+      </c>
+      <c r="E259">
+        <v>46.18</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>19</v>
+      </c>
+      <c r="C260">
+        <v>0.27298</v>
+      </c>
+      <c r="D260">
+        <v>54.01</v>
+      </c>
+      <c r="E260">
+        <v>45.99</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>19</v>
+      </c>
+      <c r="C261">
+        <v>0.27327</v>
+      </c>
+      <c r="D261">
+        <v>54.2</v>
+      </c>
+      <c r="E261">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>19</v>
+      </c>
+      <c r="C262">
+        <v>0.27357</v>
+      </c>
+      <c r="D262">
+        <v>54.39</v>
+      </c>
+      <c r="E262">
+        <v>45.61</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>19</v>
+      </c>
+      <c r="C263">
+        <v>0.27386</v>
+      </c>
+      <c r="D263">
+        <v>54.58</v>
+      </c>
+      <c r="E263">
+        <v>45.42</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>19</v>
+      </c>
+      <c r="C264">
+        <v>0.27415</v>
+      </c>
+      <c r="D264">
+        <v>54.78</v>
+      </c>
+      <c r="E264">
+        <v>45.22</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>19</v>
+      </c>
+      <c r="C265">
+        <v>0.27445</v>
+      </c>
+      <c r="D265">
+        <v>54.97</v>
+      </c>
+      <c r="E265">
+        <v>45.03</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>19</v>
+      </c>
+      <c r="C266">
+        <v>0.27475</v>
+      </c>
+      <c r="D266">
+        <v>55.16</v>
+      </c>
+      <c r="E266">
+        <v>44.84</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>19</v>
+      </c>
+      <c r="C267">
+        <v>0.27504</v>
+      </c>
+      <c r="D267">
+        <v>55.35</v>
+      </c>
+      <c r="E267">
+        <v>44.65</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>20</v>
+      </c>
+      <c r="C268">
+        <v>0.27534</v>
+      </c>
+      <c r="D268">
+        <v>55.54</v>
+      </c>
+      <c r="E268">
+        <v>44.46</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>20</v>
+      </c>
+      <c r="C269">
+        <v>0.27564</v>
+      </c>
+      <c r="D269">
+        <v>55.73</v>
+      </c>
+      <c r="E269">
+        <v>44.27</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>20</v>
+      </c>
+      <c r="C270">
+        <v>0.27594</v>
+      </c>
+      <c r="D270">
+        <v>55.92</v>
+      </c>
+      <c r="E270">
+        <v>44.08</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>20</v>
+      </c>
+      <c r="C271">
+        <v>0.27624</v>
+      </c>
+      <c r="D271">
+        <v>56.11</v>
+      </c>
+      <c r="E271">
+        <v>43.89</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>20</v>
+      </c>
+      <c r="C272">
+        <v>0.27654</v>
+      </c>
+      <c r="D272">
+        <v>56.3</v>
+      </c>
+      <c r="E272">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>20</v>
+      </c>
+      <c r="C273">
+        <v>0.27684</v>
+      </c>
+      <c r="D273">
+        <v>56.49</v>
+      </c>
+      <c r="E273">
+        <v>43.51</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>20</v>
+      </c>
+      <c r="C274">
+        <v>0.27715</v>
+      </c>
+      <c r="D274">
+        <v>56.68</v>
+      </c>
+      <c r="E274">
+        <v>43.32</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>20</v>
+      </c>
+      <c r="C275">
+        <v>0.27745</v>
+      </c>
+      <c r="D275">
+        <v>56.87</v>
+      </c>
+      <c r="E275">
+        <v>43.13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>20</v>
+      </c>
+      <c r="C276">
+        <v>0.27775</v>
+      </c>
+      <c r="D276">
+        <v>57.07</v>
+      </c>
+      <c r="E276">
+        <v>42.93</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>20</v>
+      </c>
+      <c r="C277">
+        <v>0.27806</v>
+      </c>
+      <c r="D277">
+        <v>57.26</v>
+      </c>
+      <c r="E277">
+        <v>42.74</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>20</v>
+      </c>
+      <c r="C278">
+        <v>0.27837</v>
+      </c>
+      <c r="D278">
+        <v>57.45</v>
+      </c>
+      <c r="E278">
+        <v>42.55</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>20</v>
+      </c>
+      <c r="C279">
+        <v>0.27867</v>
+      </c>
+      <c r="D279">
+        <v>57.64</v>
+      </c>
+      <c r="E279">
+        <v>42.36</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>20</v>
+      </c>
+      <c r="C280">
+        <v>0.27898</v>
+      </c>
+      <c r="D280">
+        <v>57.83</v>
+      </c>
+      <c r="E280">
+        <v>42.17</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>20</v>
+      </c>
+      <c r="C281">
+        <v>0.27929</v>
+      </c>
+      <c r="D281">
+        <v>58.02</v>
+      </c>
+      <c r="E281">
+        <v>41.98</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>20</v>
+      </c>
+      <c r="C282">
+        <v>0.2796</v>
+      </c>
+      <c r="D282">
+        <v>58.21</v>
+      </c>
+      <c r="E282">
+        <v>41.79</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>20</v>
+      </c>
+      <c r="C283">
+        <v>0.27991</v>
+      </c>
+      <c r="D283">
+        <v>58.4</v>
+      </c>
+      <c r="E283">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>20</v>
+      </c>
+      <c r="C284">
+        <v>0.28022</v>
+      </c>
+      <c r="D284">
+        <v>58.59</v>
+      </c>
+      <c r="E284">
+        <v>41.41</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>20</v>
+      </c>
+      <c r="C285">
+        <v>0.28053</v>
+      </c>
+      <c r="D285">
+        <v>58.78</v>
+      </c>
+      <c r="E285">
+        <v>41.22</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>20</v>
+      </c>
+      <c r="C286">
+        <v>0.28084</v>
+      </c>
+      <c r="D286">
+        <v>58.97</v>
+      </c>
+      <c r="E286">
+        <v>41.03</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>20</v>
+      </c>
+      <c r="C287">
+        <v>0.28115</v>
+      </c>
+      <c r="D287">
+        <v>59.16</v>
+      </c>
+      <c r="E287">
+        <v>40.84</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>20</v>
+      </c>
+      <c r="C288">
+        <v>0.28147</v>
+      </c>
+      <c r="D288">
+        <v>59.36</v>
+      </c>
+      <c r="E288">
+        <v>40.64</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>21</v>
+      </c>
+      <c r="C289">
+        <v>0.28178</v>
+      </c>
+      <c r="D289">
+        <v>59.55</v>
+      </c>
+      <c r="E289">
+        <v>40.45</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>21</v>
+      </c>
+      <c r="C290">
+        <v>0.2821</v>
+      </c>
+      <c r="D290">
+        <v>59.74</v>
+      </c>
+      <c r="E290">
+        <v>40.26</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>21</v>
+      </c>
+      <c r="C291">
+        <v>0.28241</v>
+      </c>
+      <c r="D291">
+        <v>59.93</v>
+      </c>
+      <c r="E291">
+        <v>40.07</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>21</v>
+      </c>
+      <c r="C292">
+        <v>0.28273</v>
+      </c>
+      <c r="D292">
+        <v>60.12</v>
+      </c>
+      <c r="E292">
+        <v>39.88</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>21</v>
+      </c>
+      <c r="C293">
+        <v>0.28304</v>
+      </c>
+      <c r="D293">
+        <v>60.31</v>
+      </c>
+      <c r="E293">
+        <v>39.69</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>21</v>
+      </c>
+      <c r="C294">
+        <v>0.28336</v>
+      </c>
+      <c r="D294">
+        <v>60.5</v>
+      </c>
+      <c r="E294">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>21</v>
+      </c>
+      <c r="C295">
+        <v>0.28368</v>
+      </c>
+      <c r="D295">
+        <v>60.69</v>
+      </c>
+      <c r="E295">
+        <v>39.31</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>21</v>
+      </c>
+      <c r="C296">
+        <v>0.284</v>
+      </c>
+      <c r="D296">
+        <v>60.88</v>
+      </c>
+      <c r="E296">
+        <v>39.12</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>21</v>
+      </c>
+      <c r="C297">
+        <v>0.28432</v>
+      </c>
+      <c r="D297">
+        <v>61.07</v>
+      </c>
+      <c r="E297">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>21</v>
+      </c>
+      <c r="C298">
+        <v>0.28464</v>
+      </c>
+      <c r="D298">
+        <v>61.26</v>
+      </c>
+      <c r="E298">
+        <v>38.74</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>21</v>
+      </c>
+      <c r="C299">
+        <v>0.28496</v>
+      </c>
+      <c r="D299">
+        <v>61.45</v>
+      </c>
+      <c r="E299">
+        <v>38.55</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>21</v>
+      </c>
+      <c r="C300">
+        <v>0.28529</v>
+      </c>
+      <c r="D300">
+        <v>61.65</v>
+      </c>
+      <c r="E300">
+        <v>38.35</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>21</v>
+      </c>
+      <c r="C301">
+        <v>0.28561</v>
+      </c>
+      <c r="D301">
+        <v>61.84</v>
+      </c>
+      <c r="E301">
+        <v>38.16</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>21</v>
+      </c>
+      <c r="C302">
+        <v>0.28593</v>
+      </c>
+      <c r="D302">
+        <v>62.03</v>
+      </c>
+      <c r="E302">
+        <v>37.97</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>21</v>
+      </c>
+      <c r="C303">
+        <v>0.28626</v>
+      </c>
+      <c r="D303">
+        <v>62.22</v>
+      </c>
+      <c r="E303">
+        <v>37.78</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>21</v>
+      </c>
+      <c r="C304">
+        <v>0.28658</v>
+      </c>
+      <c r="D304">
+        <v>62.41</v>
+      </c>
+      <c r="E304">
+        <v>37.59</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>21</v>
+      </c>
+      <c r="C305">
+        <v>0.28691</v>
+      </c>
+      <c r="D305">
+        <v>62.6</v>
+      </c>
+      <c r="E305">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>21</v>
+      </c>
+      <c r="C306">
+        <v>0.28723</v>
+      </c>
+      <c r="D306">
+        <v>62.79</v>
+      </c>
+      <c r="E306">
+        <v>37.21</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>21</v>
+      </c>
+      <c r="C307">
+        <v>0.28756</v>
+      </c>
+      <c r="D307">
+        <v>62.98</v>
+      </c>
+      <c r="E307">
+        <v>37.02</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>21</v>
+      </c>
+      <c r="C308">
+        <v>0.28789</v>
+      </c>
+      <c r="D308">
+        <v>63.17</v>
+      </c>
+      <c r="E308">
+        <v>36.83</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>21</v>
+      </c>
+      <c r="C309">
+        <v>0.28822</v>
+      </c>
+      <c r="D309">
+        <v>63.36</v>
+      </c>
+      <c r="E309">
+        <v>36.64</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>22</v>
+      </c>
+      <c r="C310">
+        <v>0.28855</v>
+      </c>
+      <c r="D310">
+        <v>63.55</v>
+      </c>
+      <c r="E310">
+        <v>36.45</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>22</v>
+      </c>
+      <c r="C311">
+        <v>0.28888</v>
+      </c>
+      <c r="D311">
+        <v>63.74</v>
+      </c>
+      <c r="E311">
+        <v>36.26</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>22</v>
+      </c>
+      <c r="C312">
+        <v>0.28921</v>
+      </c>
+      <c r="D312">
+        <v>63.94</v>
+      </c>
+      <c r="E312">
+        <v>36.06</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>22</v>
+      </c>
+      <c r="C313">
+        <v>0.28954</v>
+      </c>
+      <c r="D313">
+        <v>64.13</v>
+      </c>
+      <c r="E313">
+        <v>35.87</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>22</v>
+      </c>
+      <c r="C314">
+        <v>0.28987</v>
+      </c>
+      <c r="D314">
+        <v>64.31999999999999</v>
+      </c>
+      <c r="E314">
+        <v>35.68</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>22</v>
+      </c>
+      <c r="C315">
+        <v>0.2902</v>
+      </c>
+      <c r="D315">
+        <v>64.51000000000001</v>
+      </c>
+      <c r="E315">
+        <v>35.49</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>22</v>
+      </c>
+      <c r="C316">
+        <v>0.29054</v>
+      </c>
+      <c r="D316">
+        <v>64.7</v>
+      </c>
+      <c r="E316">
+        <v>35.3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>22</v>
+      </c>
+      <c r="C317">
+        <v>0.29087</v>
+      </c>
+      <c r="D317">
+        <v>64.89</v>
+      </c>
+      <c r="E317">
+        <v>35.11</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>22</v>
+      </c>
+      <c r="C318">
+        <v>0.29121</v>
+      </c>
+      <c r="D318">
+        <v>65.08</v>
+      </c>
+      <c r="E318">
+        <v>34.92</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>22</v>
+      </c>
+      <c r="C319">
+        <v>0.29154</v>
+      </c>
+      <c r="D319">
+        <v>65.27</v>
+      </c>
+      <c r="E319">
+        <v>34.73</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>22</v>
+      </c>
+      <c r="C320">
+        <v>0.29188</v>
+      </c>
+      <c r="D320">
+        <v>65.45999999999999</v>
+      </c>
+      <c r="E320">
+        <v>34.54</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>22</v>
+      </c>
+      <c r="C321">
+        <v>0.29222</v>
+      </c>
+      <c r="D321">
+        <v>65.65000000000001</v>
+      </c>
+      <c r="E321">
+        <v>34.35</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>22</v>
+      </c>
+      <c r="C322">
+        <v>0.29255</v>
+      </c>
+      <c r="D322">
+        <v>65.84</v>
+      </c>
+      <c r="E322">
+        <v>34.16</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>22</v>
+      </c>
+      <c r="C323">
+        <v>0.29289</v>
+      </c>
+      <c r="D323">
+        <v>66.03</v>
+      </c>
+      <c r="E323">
+        <v>33.97</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>22</v>
+      </c>
+      <c r="C324">
+        <v>0.29323</v>
+      </c>
+      <c r="D324">
+        <v>66.22</v>
+      </c>
+      <c r="E324">
+        <v>33.78</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>22</v>
+      </c>
+      <c r="C325">
+        <v>0.29357</v>
+      </c>
+      <c r="D325">
+        <v>66.42</v>
+      </c>
+      <c r="E325">
+        <v>33.58</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>22</v>
+      </c>
+      <c r="C326">
+        <v>0.29391</v>
+      </c>
+      <c r="D326">
+        <v>66.61</v>
+      </c>
+      <c r="E326">
+        <v>33.39</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>22</v>
+      </c>
+      <c r="C327">
+        <v>0.29425</v>
+      </c>
+      <c r="D327">
+        <v>66.8</v>
+      </c>
+      <c r="E327">
+        <v>33.2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>22</v>
+      </c>
+      <c r="C328">
+        <v>0.29459</v>
+      </c>
+      <c r="D328">
+        <v>66.98999999999999</v>
+      </c>
+      <c r="E328">
+        <v>33.01</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>22</v>
+      </c>
+      <c r="C329">
+        <v>0.29493</v>
+      </c>
+      <c r="D329">
+        <v>67.18000000000001</v>
+      </c>
+      <c r="E329">
+        <v>32.82</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>23</v>
+      </c>
+      <c r="C330">
+        <v>0.29528</v>
+      </c>
+      <c r="D330">
+        <v>67.37</v>
+      </c>
+      <c r="E330">
+        <v>32.63</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>23</v>
+      </c>
+      <c r="C331">
+        <v>0.29562</v>
+      </c>
+      <c r="D331">
+        <v>67.56</v>
+      </c>
+      <c r="E331">
+        <v>32.44</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>23</v>
+      </c>
+      <c r="C332">
+        <v>0.29596</v>
+      </c>
+      <c r="D332">
+        <v>67.75</v>
+      </c>
+      <c r="E332">
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>23</v>
+      </c>
+      <c r="C333">
+        <v>0.29631</v>
+      </c>
+      <c r="D333">
+        <v>67.94</v>
+      </c>
+      <c r="E333">
+        <v>32.06</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>23</v>
+      </c>
+      <c r="C334">
+        <v>0.29665</v>
+      </c>
+      <c r="D334">
+        <v>68.13</v>
+      </c>
+      <c r="E334">
+        <v>31.87</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>23</v>
+      </c>
+      <c r="C335">
+        <v>0.297</v>
+      </c>
+      <c r="D335">
+        <v>68.31999999999999</v>
+      </c>
+      <c r="E335">
+        <v>31.68</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>23</v>
+      </c>
+      <c r="C336">
+        <v>0.29735</v>
+      </c>
+      <c r="D336">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="E336">
+        <v>31.49</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>23</v>
+      </c>
+      <c r="C337">
+        <v>0.29769</v>
+      </c>
+      <c r="D337">
+        <v>68.70999999999999</v>
+      </c>
+      <c r="E337">
+        <v>31.29</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>23</v>
+      </c>
+      <c r="C338">
+        <v>0.29804</v>
+      </c>
+      <c r="D338">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="E338">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>23</v>
+      </c>
+      <c r="C339">
+        <v>0.29839</v>
+      </c>
+      <c r="D339">
+        <v>69.09</v>
+      </c>
+      <c r="E339">
+        <v>30.91</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>23</v>
+      </c>
+      <c r="C340">
+        <v>0.29874</v>
+      </c>
+      <c r="D340">
+        <v>69.28</v>
+      </c>
+      <c r="E340">
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>23</v>
+      </c>
+      <c r="C341">
+        <v>0.29909</v>
+      </c>
+      <c r="D341">
+        <v>69.47</v>
+      </c>
+      <c r="E341">
+        <v>30.53</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>23</v>
+      </c>
+      <c r="C342">
+        <v>0.29944</v>
+      </c>
+      <c r="D342">
+        <v>69.66</v>
+      </c>
+      <c r="E342">
+        <v>30.34</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>23</v>
+      </c>
+      <c r="C343">
+        <v>0.29979</v>
+      </c>
+      <c r="D343">
+        <v>69.84999999999999</v>
+      </c>
+      <c r="E343">
+        <v>30.15</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>23</v>
+      </c>
+      <c r="C344">
+        <v>0.30014</v>
+      </c>
+      <c r="D344">
+        <v>70.04000000000001</v>
+      </c>
+      <c r="E344">
+        <v>29.96</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>23</v>
+      </c>
+      <c r="C345">
+        <v>0.30049</v>
+      </c>
+      <c r="D345">
+        <v>70.23</v>
+      </c>
+      <c r="E345">
+        <v>29.77</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>23</v>
+      </c>
+      <c r="C346">
+        <v>0.30085</v>
+      </c>
+      <c r="D346">
+        <v>70.42</v>
+      </c>
+      <c r="E346">
+        <v>29.58</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>23</v>
+      </c>
+      <c r="C347">
+        <v>0.3012</v>
+      </c>
+      <c r="D347">
+        <v>70.61</v>
+      </c>
+      <c r="E347">
+        <v>29.39</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>23</v>
+      </c>
+      <c r="C348">
+        <v>0.30156</v>
+      </c>
+      <c r="D348">
+        <v>70.8</v>
+      </c>
+      <c r="E348">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>23</v>
+      </c>
+      <c r="C349">
+        <v>0.30191</v>
+      </c>
+      <c r="D349">
+        <v>71</v>
+      </c>
+      <c r="E349">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>23</v>
+      </c>
+      <c r="C350">
+        <v>0.30227</v>
+      </c>
+      <c r="D350">
+        <v>71.19</v>
+      </c>
+      <c r="E350">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>24</v>
+      </c>
+      <c r="C351">
+        <v>0.30262</v>
+      </c>
+      <c r="D351">
+        <v>71.38</v>
+      </c>
+      <c r="E351">
+        <v>28.62</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>24</v>
+      </c>
+      <c r="C352">
+        <v>0.30298</v>
+      </c>
+      <c r="D352">
+        <v>71.56999999999999</v>
+      </c>
+      <c r="E352">
+        <v>28.43</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>24</v>
+      </c>
+      <c r="C353">
+        <v>0.30333</v>
+      </c>
+      <c r="D353">
+        <v>71.76000000000001</v>
+      </c>
+      <c r="E353">
+        <v>28.24</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>24</v>
+      </c>
+      <c r="C354">
+        <v>0.30369</v>
+      </c>
+      <c r="D354">
+        <v>71.95</v>
+      </c>
+      <c r="E354">
+        <v>28.05</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>24</v>
+      </c>
+      <c r="C355">
+        <v>0.30405</v>
+      </c>
+      <c r="D355">
+        <v>72.14</v>
+      </c>
+      <c r="E355">
+        <v>27.86</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>24</v>
+      </c>
+      <c r="C356">
+        <v>0.30441</v>
+      </c>
+      <c r="D356">
+        <v>72.33</v>
+      </c>
+      <c r="E356">
+        <v>27.67</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>24</v>
+      </c>
+      <c r="C357">
+        <v>0.30477</v>
+      </c>
+      <c r="D357">
+        <v>72.52</v>
+      </c>
+      <c r="E357">
+        <v>27.48</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>24</v>
+      </c>
+      <c r="C358">
+        <v>0.30513</v>
+      </c>
+      <c r="D358">
+        <v>72.70999999999999</v>
+      </c>
+      <c r="E358">
+        <v>27.29</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>24</v>
+      </c>
+      <c r="C359">
+        <v>0.30549</v>
+      </c>
+      <c r="D359">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="E359">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>24</v>
+      </c>
+      <c r="C360">
+        <v>0.30585</v>
+      </c>
+      <c r="D360">
+        <v>73.09</v>
+      </c>
+      <c r="E360">
+        <v>26.91</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>24</v>
+      </c>
+      <c r="C361">
+        <v>0.30621</v>
+      </c>
+      <c r="D361">
+        <v>73.29000000000001</v>
+      </c>
+      <c r="E361">
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>24</v>
+      </c>
+      <c r="C362">
+        <v>0.30658</v>
+      </c>
+      <c r="D362">
+        <v>73.48</v>
+      </c>
+      <c r="E362">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>24</v>
+      </c>
+      <c r="C363">
+        <v>0.30694</v>
+      </c>
+      <c r="D363">
+        <v>73.67</v>
+      </c>
+      <c r="E363">
+        <v>26.33</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>24</v>
+      </c>
+      <c r="C364">
+        <v>0.3073</v>
+      </c>
+      <c r="D364">
+        <v>73.86</v>
+      </c>
+      <c r="E364">
+        <v>26.14</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>24</v>
+      </c>
+      <c r="C365">
+        <v>0.30767</v>
+      </c>
+      <c r="D365">
+        <v>74.05</v>
+      </c>
+      <c r="E365">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>24</v>
+      </c>
+      <c r="C366">
+        <v>0.30803</v>
+      </c>
+      <c r="D366">
+        <v>74.23999999999999</v>
+      </c>
+      <c r="E366">
+        <v>25.76</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>24</v>
+      </c>
+      <c r="C367">
+        <v>0.3084</v>
+      </c>
+      <c r="D367">
+        <v>74.43000000000001</v>
+      </c>
+      <c r="E367">
+        <v>25.57</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>24</v>
+      </c>
+      <c r="C368">
+        <v>0.30876</v>
+      </c>
+      <c r="D368">
+        <v>74.62</v>
+      </c>
+      <c r="E368">
+        <v>25.38</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>24</v>
+      </c>
+      <c r="C369">
+        <v>0.30913</v>
+      </c>
+      <c r="D369">
+        <v>74.81</v>
+      </c>
+      <c r="E369">
+        <v>25.19</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>24</v>
+      </c>
+      <c r="C370">
+        <v>0.3095</v>
+      </c>
+      <c r="D370">
+        <v>75</v>
+      </c>
+      <c r="E370">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>24</v>
+      </c>
+      <c r="C371">
+        <v>0.30986</v>
+      </c>
+      <c r="D371">
+        <v>75.19</v>
+      </c>
+      <c r="E371">
+        <v>24.81</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>25</v>
+      </c>
+      <c r="C372">
+        <v>0.31023</v>
+      </c>
+      <c r="D372">
+        <v>75.38</v>
+      </c>
+      <c r="E372">
+        <v>24.62</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>25</v>
+      </c>
+      <c r="C373">
+        <v>0.3106</v>
+      </c>
+      <c r="D373">
+        <v>75.58</v>
+      </c>
+      <c r="E373">
+        <v>24.42</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>25</v>
+      </c>
+      <c r="C374">
+        <v>0.31097</v>
+      </c>
+      <c r="D374">
+        <v>75.77</v>
+      </c>
+      <c r="E374">
+        <v>24.23</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>25</v>
+      </c>
+      <c r="C375">
+        <v>0.31134</v>
+      </c>
+      <c r="D375">
+        <v>75.95999999999999</v>
+      </c>
+      <c r="E375">
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>25</v>
+      </c>
+      <c r="C376">
+        <v>0.31171</v>
+      </c>
+      <c r="D376">
+        <v>76.15000000000001</v>
+      </c>
+      <c r="E376">
+        <v>23.85</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>25</v>
+      </c>
+      <c r="C377">
+        <v>0.31208</v>
+      </c>
+      <c r="D377">
+        <v>76.34</v>
+      </c>
+      <c r="E377">
+        <v>23.66</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>25</v>
+      </c>
+      <c r="C378">
+        <v>0.31245</v>
+      </c>
+      <c r="D378">
+        <v>76.53</v>
+      </c>
+      <c r="E378">
+        <v>23.47</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>25</v>
+      </c>
+      <c r="C379">
+        <v>0.31282</v>
+      </c>
+      <c r="D379">
+        <v>76.72</v>
+      </c>
+      <c r="E379">
+        <v>23.28</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>25</v>
+      </c>
+      <c r="C380">
+        <v>0.3132</v>
+      </c>
+      <c r="D380">
+        <v>76.91</v>
+      </c>
+      <c r="E380">
+        <v>23.09</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>25</v>
+      </c>
+      <c r="C381">
+        <v>0.31357</v>
+      </c>
+      <c r="D381">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E381">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>25</v>
+      </c>
+      <c r="C382">
+        <v>0.31394</v>
+      </c>
+      <c r="D382">
+        <v>77.29000000000001</v>
+      </c>
+      <c r="E382">
+        <v>22.71</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>25</v>
+      </c>
+      <c r="C383">
+        <v>0.31432</v>
+      </c>
+      <c r="D383">
+        <v>77.48</v>
+      </c>
+      <c r="E383">
+        <v>22.52</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>25</v>
+      </c>
+      <c r="C384">
+        <v>0.31469</v>
+      </c>
+      <c r="D384">
+        <v>77.67</v>
+      </c>
+      <c r="E384">
+        <v>22.33</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>25</v>
+      </c>
+      <c r="C385">
+        <v>0.31507</v>
+      </c>
+      <c r="D385">
+        <v>77.86</v>
+      </c>
+      <c r="E385">
+        <v>22.14</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>25</v>
+      </c>
+      <c r="C386">
+        <v>0.31544</v>
+      </c>
+      <c r="D386">
+        <v>78.06</v>
+      </c>
+      <c r="E386">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>25</v>
+      </c>
+      <c r="C387">
+        <v>0.31582</v>
+      </c>
+      <c r="D387">
+        <v>78.25</v>
+      </c>
+      <c r="E387">
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>25</v>
+      </c>
+      <c r="C388">
+        <v>0.3162</v>
+      </c>
+      <c r="D388">
+        <v>78.44</v>
+      </c>
+      <c r="E388">
+        <v>21.56</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>25</v>
+      </c>
+      <c r="C389">
+        <v>0.31657</v>
+      </c>
+      <c r="D389">
+        <v>78.63</v>
+      </c>
+      <c r="E389">
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>25</v>
+      </c>
+      <c r="C390">
+        <v>0.31695</v>
+      </c>
+      <c r="D390">
+        <v>78.81999999999999</v>
+      </c>
+      <c r="E390">
+        <v>21.18</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>25</v>
+      </c>
+      <c r="C391">
+        <v>0.31733</v>
+      </c>
+      <c r="D391">
+        <v>79.01000000000001</v>
+      </c>
+      <c r="E391">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>25</v>
+      </c>
+      <c r="C392">
+        <v>0.31771</v>
+      </c>
+      <c r="D392">
+        <v>79.2</v>
+      </c>
+      <c r="E392">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>26</v>
+      </c>
+      <c r="C393">
+        <v>0.31809</v>
+      </c>
+      <c r="D393">
+        <v>79.39</v>
+      </c>
+      <c r="E393">
+        <v>20.61</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>26</v>
+      </c>
+      <c r="C394">
+        <v>0.31847</v>
+      </c>
+      <c r="D394">
+        <v>79.58</v>
+      </c>
+      <c r="E394">
+        <v>20.42</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>26</v>
+      </c>
+      <c r="C395">
+        <v>0.31885</v>
+      </c>
+      <c r="D395">
+        <v>79.77</v>
+      </c>
+      <c r="E395">
+        <v>20.23</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>26</v>
+      </c>
+      <c r="C396">
+        <v>0.31923</v>
+      </c>
+      <c r="D396">
+        <v>79.95999999999999</v>
+      </c>
+      <c r="E396">
+        <v>20.04</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>26</v>
+      </c>
+      <c r="C397">
+        <v>0.31961</v>
+      </c>
+      <c r="D397">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="E397">
+        <v>19.85</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>26</v>
+      </c>
+      <c r="C398">
+        <v>0.31999</v>
+      </c>
+      <c r="D398">
+        <v>80.34999999999999</v>
+      </c>
+      <c r="E398">
+        <v>19.65</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>26</v>
+      </c>
+      <c r="C399">
+        <v>0.32037</v>
+      </c>
+      <c r="D399">
+        <v>80.54000000000001</v>
+      </c>
+      <c r="E399">
+        <v>19.46</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>26</v>
+      </c>
+      <c r="C400">
+        <v>0.32076</v>
+      </c>
+      <c r="D400">
+        <v>80.73</v>
+      </c>
+      <c r="E400">
+        <v>19.27</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>26</v>
+      </c>
+      <c r="C401">
+        <v>0.32114</v>
+      </c>
+      <c r="D401">
+        <v>80.92</v>
+      </c>
+      <c r="E401">
+        <v>19.08</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>26</v>
+      </c>
+      <c r="C402">
+        <v>0.32152</v>
+      </c>
+      <c r="D402">
+        <v>81.11</v>
+      </c>
+      <c r="E402">
+        <v>18.89</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>26</v>
+      </c>
+      <c r="C403">
+        <v>0.32191</v>
+      </c>
+      <c r="D403">
+        <v>81.3</v>
+      </c>
+      <c r="E403">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>26</v>
+      </c>
+      <c r="C404">
+        <v>0.32229</v>
+      </c>
+      <c r="D404">
+        <v>81.48999999999999</v>
+      </c>
+      <c r="E404">
+        <v>18.51</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>26</v>
+      </c>
+      <c r="C405">
+        <v>0.32268</v>
+      </c>
+      <c r="D405">
+        <v>81.68000000000001</v>
+      </c>
+      <c r="E405">
+        <v>18.32</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>26</v>
+      </c>
+      <c r="C406">
+        <v>0.32307</v>
+      </c>
+      <c r="D406">
+        <v>81.87</v>
+      </c>
+      <c r="E406">
+        <v>18.13</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>26</v>
+      </c>
+      <c r="C407">
+        <v>0.32345</v>
+      </c>
+      <c r="D407">
+        <v>82.06</v>
+      </c>
+      <c r="E407">
+        <v>17.94</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>26</v>
+      </c>
+      <c r="C408">
+        <v>0.32384</v>
+      </c>
+      <c r="D408">
+        <v>82.25</v>
+      </c>
+      <c r="E408">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>26</v>
+      </c>
+      <c r="C409">
+        <v>0.32423</v>
+      </c>
+      <c r="D409">
+        <v>82.44</v>
+      </c>
+      <c r="E409">
+        <v>17.56</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>26</v>
+      </c>
+      <c r="C410">
+        <v>0.32461</v>
+      </c>
+      <c r="D410">
+        <v>82.64</v>
+      </c>
+      <c r="E410">
+        <v>17.36</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>26</v>
+      </c>
+      <c r="C411">
+        <v>0.325</v>
+      </c>
+      <c r="D411">
+        <v>82.83</v>
+      </c>
+      <c r="E411">
+        <v>17.17</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>26</v>
+      </c>
+      <c r="C412">
+        <v>0.32539</v>
+      </c>
+      <c r="D412">
+        <v>83.02</v>
+      </c>
+      <c r="E412">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>26</v>
+      </c>
+      <c r="C413">
+        <v>0.32578</v>
+      </c>
+      <c r="D413">
+        <v>83.20999999999999</v>
+      </c>
+      <c r="E413">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>27</v>
+      </c>
+      <c r="C414">
+        <v>0.32617</v>
+      </c>
+      <c r="D414">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="E414">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>27</v>
+      </c>
+      <c r="C415">
+        <v>0.32656</v>
+      </c>
+      <c r="D415">
+        <v>83.59</v>
+      </c>
+      <c r="E415">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>27</v>
+      </c>
+      <c r="C416">
+        <v>0.32695</v>
+      </c>
+      <c r="D416">
+        <v>83.78</v>
+      </c>
+      <c r="E416">
+        <v>16.22</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>27</v>
+      </c>
+      <c r="C417">
+        <v>0.32734</v>
+      </c>
+      <c r="D417">
+        <v>83.97</v>
+      </c>
+      <c r="E417">
+        <v>16.03</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>27</v>
+      </c>
+      <c r="C418">
+        <v>0.32774</v>
+      </c>
+      <c r="D418">
+        <v>84.16</v>
+      </c>
+      <c r="E418">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>27</v>
+      </c>
+      <c r="C419">
+        <v>0.32813</v>
+      </c>
+      <c r="D419">
+        <v>84.34999999999999</v>
+      </c>
+      <c r="E419">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>27</v>
+      </c>
+      <c r="C420">
+        <v>0.32852</v>
+      </c>
+      <c r="D420">
+        <v>84.54000000000001</v>
+      </c>
+      <c r="E420">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>27</v>
+      </c>
+      <c r="C421">
+        <v>0.32891</v>
+      </c>
+      <c r="D421">
+        <v>84.73</v>
+      </c>
+      <c r="E421">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>27</v>
+      </c>
+      <c r="C422">
+        <v>0.32931</v>
+      </c>
+      <c r="D422">
+        <v>84.93000000000001</v>
+      </c>
+      <c r="E422">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>27</v>
+      </c>
+      <c r="C423">
+        <v>0.3297</v>
+      </c>
+      <c r="D423">
+        <v>85.12</v>
+      </c>
+      <c r="E423">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>27</v>
+      </c>
+      <c r="C424">
+        <v>0.3301</v>
+      </c>
+      <c r="D424">
+        <v>85.31</v>
+      </c>
+      <c r="E424">
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>27</v>
+      </c>
+      <c r="C425">
+        <v>0.33049</v>
+      </c>
+      <c r="D425">
+        <v>85.5</v>
+      </c>
+      <c r="E425">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>27</v>
+      </c>
+      <c r="C426">
+        <v>0.33089</v>
+      </c>
+      <c r="D426">
+        <v>85.69</v>
+      </c>
+      <c r="E426">
+        <v>14.31</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>27</v>
+      </c>
+      <c r="C427">
+        <v>0.33128</v>
+      </c>
+      <c r="D427">
+        <v>85.88</v>
+      </c>
+      <c r="E427">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>27</v>
+      </c>
+      <c r="C428">
+        <v>0.33168</v>
+      </c>
+      <c r="D428">
+        <v>86.06999999999999</v>
+      </c>
+      <c r="E428">
+        <v>13.93</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>27</v>
+      </c>
+      <c r="C429">
+        <v>0.33208</v>
+      </c>
+      <c r="D429">
+        <v>86.26000000000001</v>
+      </c>
+      <c r="E429">
+        <v>13.74</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>27</v>
+      </c>
+      <c r="C430">
+        <v>0.33247</v>
+      </c>
+      <c r="D430">
+        <v>86.45</v>
+      </c>
+      <c r="E430">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>27</v>
+      </c>
+      <c r="C431">
+        <v>0.33287</v>
+      </c>
+      <c r="D431">
+        <v>86.64</v>
+      </c>
+      <c r="E431">
+        <v>13.36</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>27</v>
+      </c>
+      <c r="C432">
+        <v>0.33327</v>
+      </c>
+      <c r="D432">
+        <v>86.83</v>
+      </c>
+      <c r="E432">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>27</v>
+      </c>
+      <c r="C433">
+        <v>0.33367</v>
+      </c>
+      <c r="D433">
+        <v>87.02</v>
+      </c>
+      <c r="E433">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>28</v>
+      </c>
+      <c r="C434">
+        <v>0.33407</v>
+      </c>
+      <c r="D434">
+        <v>87.22</v>
+      </c>
+      <c r="E434">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>28</v>
+      </c>
+      <c r="C435">
+        <v>0.33447</v>
+      </c>
+      <c r="D435">
+        <v>87.41</v>
+      </c>
+      <c r="E435">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>28</v>
+      </c>
+      <c r="C436">
+        <v>0.33487</v>
+      </c>
+      <c r="D436">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="E436">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>28</v>
+      </c>
+      <c r="C437">
+        <v>0.33527</v>
+      </c>
+      <c r="D437">
+        <v>87.79000000000001</v>
+      </c>
+      <c r="E437">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>28</v>
+      </c>
+      <c r="C438">
+        <v>0.33567</v>
+      </c>
+      <c r="D438">
+        <v>87.98</v>
+      </c>
+      <c r="E438">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>28</v>
+      </c>
+      <c r="C439">
+        <v>0.33607</v>
+      </c>
+      <c r="D439">
+        <v>88.17</v>
+      </c>
+      <c r="E439">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>28</v>
+      </c>
+      <c r="C440">
+        <v>0.33647</v>
+      </c>
+      <c r="D440">
+        <v>88.36</v>
+      </c>
+      <c r="E440">
+        <v>11.64</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>28</v>
+      </c>
+      <c r="C441">
+        <v>0.33688</v>
+      </c>
+      <c r="D441">
+        <v>88.55</v>
+      </c>
+      <c r="E441">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>28</v>
+      </c>
+      <c r="C442">
+        <v>0.33728</v>
+      </c>
+      <c r="D442">
+        <v>88.73999999999999</v>
+      </c>
+      <c r="E442">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>28</v>
+      </c>
+      <c r="C443">
+        <v>0.33768</v>
+      </c>
+      <c r="D443">
+        <v>88.93000000000001</v>
+      </c>
+      <c r="E443">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>28</v>
+      </c>
+      <c r="C444">
+        <v>0.33808</v>
+      </c>
+      <c r="D444">
+        <v>89.12</v>
+      </c>
+      <c r="E444">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>28</v>
+      </c>
+      <c r="C445">
+        <v>0.33849</v>
+      </c>
+      <c r="D445">
+        <v>89.31</v>
+      </c>
+      <c r="E445">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>28</v>
+      </c>
+      <c r="C446">
+        <v>0.33889</v>
+      </c>
+      <c r="D446">
+        <v>89.5</v>
+      </c>
+      <c r="E446">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>28</v>
+      </c>
+      <c r="C447">
+        <v>0.3393</v>
+      </c>
+      <c r="D447">
+        <v>89.7</v>
+      </c>
+      <c r="E447">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>28</v>
+      </c>
+      <c r="C448">
+        <v>0.3397</v>
+      </c>
+      <c r="D448">
+        <v>89.89</v>
+      </c>
+      <c r="E448">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>28</v>
+      </c>
+      <c r="C449">
+        <v>0.34011</v>
+      </c>
+      <c r="D449">
+        <v>90.08</v>
+      </c>
+      <c r="E449">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>28</v>
+      </c>
+      <c r="C450">
+        <v>0.34052</v>
+      </c>
+      <c r="D450">
+        <v>90.27</v>
+      </c>
+      <c r="E450">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>28</v>
+      </c>
+      <c r="C451">
+        <v>0.34092</v>
+      </c>
+      <c r="D451">
+        <v>90.45999999999999</v>
+      </c>
+      <c r="E451">
+        <v>9.539999999999999</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>28</v>
+      </c>
+      <c r="C452">
+        <v>0.34133</v>
+      </c>
+      <c r="D452">
+        <v>90.65000000000001</v>
+      </c>
+      <c r="E452">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>28</v>
+      </c>
+      <c r="C453">
+        <v>0.34174</v>
+      </c>
+      <c r="D453">
+        <v>90.84</v>
+      </c>
+      <c r="E453">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>28</v>
+      </c>
+      <c r="C454">
+        <v>0.34214</v>
+      </c>
+      <c r="D454">
+        <v>91.03</v>
+      </c>
+      <c r="E454">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>29</v>
+      </c>
+      <c r="C455">
+        <v>0.34255</v>
+      </c>
+      <c r="D455">
+        <v>91.22</v>
+      </c>
+      <c r="E455">
+        <v>8.779999999999999</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>29</v>
+      </c>
+      <c r="C456">
+        <v>0.34296</v>
+      </c>
+      <c r="D456">
+        <v>91.41</v>
+      </c>
+      <c r="E456">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>29</v>
+      </c>
+      <c r="C457">
+        <v>0.34337</v>
+      </c>
+      <c r="D457">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="E457">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>29</v>
+      </c>
+      <c r="C458">
+        <v>0.34378</v>
+      </c>
+      <c r="D458">
+        <v>91.79000000000001</v>
+      </c>
+      <c r="E458">
+        <v>8.210000000000001</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>29</v>
+      </c>
+      <c r="C459">
+        <v>0.34419</v>
+      </c>
+      <c r="D459">
+        <v>91.98999999999999</v>
+      </c>
+      <c r="E459">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>29</v>
+      </c>
+      <c r="C460">
+        <v>0.3446</v>
+      </c>
+      <c r="D460">
+        <v>92.18000000000001</v>
+      </c>
+      <c r="E460">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>29</v>
+      </c>
+      <c r="C461">
+        <v>0.34501</v>
+      </c>
+      <c r="D461">
+        <v>92.37</v>
+      </c>
+      <c r="E461">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>29</v>
+      </c>
+      <c r="C462">
+        <v>0.34542</v>
+      </c>
+      <c r="D462">
+        <v>92.56</v>
+      </c>
+      <c r="E462">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>29</v>
+      </c>
+      <c r="C463">
+        <v>0.34583</v>
+      </c>
+      <c r="D463">
+        <v>92.75</v>
+      </c>
+      <c r="E463">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>29</v>
+      </c>
+      <c r="C464">
+        <v>0.34625</v>
+      </c>
+      <c r="D464">
+        <v>92.94</v>
+      </c>
+      <c r="E464">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>29</v>
+      </c>
+      <c r="C465">
+        <v>0.34666</v>
+      </c>
+      <c r="D465">
+        <v>93.13</v>
+      </c>
+      <c r="E465">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>29</v>
+      </c>
+      <c r="C466">
+        <v>0.34707</v>
+      </c>
+      <c r="D466">
+        <v>93.31999999999999</v>
+      </c>
+      <c r="E466">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>29</v>
+      </c>
+      <c r="C467">
+        <v>0.34748</v>
+      </c>
+      <c r="D467">
+        <v>93.51000000000001</v>
+      </c>
+      <c r="E467">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>29</v>
+      </c>
+      <c r="C468">
+        <v>0.3479</v>
+      </c>
+      <c r="D468">
+        <v>93.7</v>
+      </c>
+      <c r="E468">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>29</v>
+      </c>
+      <c r="C469">
+        <v>0.34831</v>
+      </c>
+      <c r="D469">
+        <v>93.89</v>
+      </c>
+      <c r="E469">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>29</v>
+      </c>
+      <c r="C470">
+        <v>0.34873</v>
+      </c>
+      <c r="D470">
+        <v>94.08</v>
+      </c>
+      <c r="E470">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>29</v>
+      </c>
+      <c r="C471">
+        <v>0.34914</v>
+      </c>
+      <c r="D471">
+        <v>94.28</v>
+      </c>
+      <c r="E471">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>29</v>
+      </c>
+      <c r="C472">
+        <v>0.34955</v>
+      </c>
+      <c r="D472">
+        <v>94.47</v>
+      </c>
+      <c r="E472">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>29</v>
+      </c>
+      <c r="C473">
+        <v>0.34997</v>
+      </c>
+      <c r="D473">
+        <v>94.66</v>
+      </c>
+      <c r="E473">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>29</v>
+      </c>
+      <c r="C474">
+        <v>0.35039</v>
+      </c>
+      <c r="D474">
+        <v>94.84999999999999</v>
+      </c>
+      <c r="E474">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>29</v>
+      </c>
+      <c r="C475">
+        <v>0.3508</v>
+      </c>
+      <c r="D475">
+        <v>95.04000000000001</v>
+      </c>
+      <c r="E475">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>30</v>
+      </c>
+      <c r="C476">
+        <v>0.35122</v>
+      </c>
+      <c r="D476">
+        <v>95.23</v>
+      </c>
+      <c r="E476">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>30</v>
+      </c>
+      <c r="C477">
+        <v>0.35164</v>
+      </c>
+      <c r="D477">
+        <v>95.42</v>
+      </c>
+      <c r="E477">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>30</v>
+      </c>
+      <c r="C478">
+        <v>0.35205</v>
+      </c>
+      <c r="D478">
+        <v>95.61</v>
+      </c>
+      <c r="E478">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>30</v>
+      </c>
+      <c r="C479">
+        <v>0.35247</v>
+      </c>
+      <c r="D479">
+        <v>95.8</v>
+      </c>
+      <c r="E479">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>30</v>
+      </c>
+      <c r="C480">
+        <v>0.35289</v>
+      </c>
+      <c r="D480">
+        <v>95.98999999999999</v>
+      </c>
+      <c r="E480">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>30</v>
+      </c>
+      <c r="C481">
+        <v>0.35331</v>
+      </c>
+      <c r="D481">
+        <v>96.18000000000001</v>
+      </c>
+      <c r="E481">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>30</v>
+      </c>
+      <c r="C482">
+        <v>0.35373</v>
+      </c>
+      <c r="D482">
+        <v>96.37</v>
+      </c>
+      <c r="E482">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>30</v>
+      </c>
+      <c r="C483">
+        <v>0.35415</v>
+      </c>
+      <c r="D483">
+        <v>96.56999999999999</v>
+      </c>
+      <c r="E483">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>30</v>
+      </c>
+      <c r="C484">
+        <v>0.35457</v>
+      </c>
+      <c r="D484">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="E484">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>30</v>
+      </c>
+      <c r="C485">
+        <v>0.35499</v>
+      </c>
+      <c r="D485">
+        <v>96.95</v>
+      </c>
+      <c r="E485">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>30</v>
+      </c>
+      <c r="C486">
+        <v>0.35541</v>
+      </c>
+      <c r="D486">
+        <v>97.14</v>
+      </c>
+      <c r="E486">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>30</v>
+      </c>
+      <c r="C487">
+        <v>0.35583</v>
+      </c>
+      <c r="D487">
+        <v>97.33</v>
+      </c>
+      <c r="E487">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>30</v>
+      </c>
+      <c r="C488">
+        <v>0.35625</v>
+      </c>
+      <c r="D488">
+        <v>97.52</v>
+      </c>
+      <c r="E488">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>30</v>
+      </c>
+      <c r="C489">
+        <v>0.35667</v>
+      </c>
+      <c r="D489">
+        <v>97.70999999999999</v>
+      </c>
+      <c r="E489">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>30</v>
+      </c>
+      <c r="C490">
+        <v>0.35709</v>
+      </c>
+      <c r="D490">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="E490">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>30</v>
+      </c>
+      <c r="C491">
+        <v>0.35751</v>
+      </c>
+      <c r="D491">
+        <v>98.09</v>
+      </c>
+      <c r="E491">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>30</v>
+      </c>
+      <c r="C492">
+        <v>0.35794</v>
+      </c>
+      <c r="D492">
+        <v>98.28</v>
+      </c>
+      <c r="E492">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>30</v>
+      </c>
+      <c r="C493">
+        <v>0.35836</v>
+      </c>
+      <c r="D493">
+        <v>98.47</v>
+      </c>
+      <c r="E493">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>30</v>
+      </c>
+      <c r="C494">
+        <v>0.35878</v>
+      </c>
+      <c r="D494">
+        <v>98.66</v>
+      </c>
+      <c r="E494">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>30</v>
+      </c>
+      <c r="C495">
+        <v>0.35921</v>
+      </c>
+      <c r="D495">
+        <v>98.86</v>
+      </c>
+      <c r="E495">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>30</v>
+      </c>
+      <c r="C496">
+        <v>0.35963</v>
+      </c>
+      <c r="D496">
+        <v>99.05</v>
+      </c>
+      <c r="E496">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497">
         <v>31</v>
       </c>
-      <c r="C51">
+      <c r="C497">
+        <v>0.36006</v>
+      </c>
+      <c r="D497">
+        <v>99.23999999999999</v>
+      </c>
+      <c r="E497">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>31</v>
+      </c>
+      <c r="C498">
+        <v>0.36048</v>
+      </c>
+      <c r="D498">
+        <v>99.43000000000001</v>
+      </c>
+      <c r="E498">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>31</v>
+      </c>
+      <c r="C499">
+        <v>0.36091</v>
+      </c>
+      <c r="D499">
+        <v>99.62</v>
+      </c>
+      <c r="E499">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>31</v>
+      </c>
+      <c r="C500">
+        <v>0.36133</v>
+      </c>
+      <c r="D500">
+        <v>99.81</v>
+      </c>
+      <c r="E500">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>31</v>
+      </c>
+      <c r="C501">
         <v>0.36176</v>
       </c>
-      <c r="D51">
+      <c r="D501">
         <v>100</v>
       </c>
-      <c r="E51">
+      <c r="E501">
         <v>0</v>
       </c>
     </row>
